--- a/Artefakte/Projektplan (vorläufig).xlsx
+++ b/Artefakte/Projektplan (vorläufig).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philipp\Documents\GitHub\EPSWS2021Wonnerth\Artefakte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D751685-F27E-49BB-A9B7-C0E140672A94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80299CED-94A6-4F17-B5A0-742F9C874DED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{844A3D81-6C6F-4253-9E99-8D7FBA7F69AD}"/>
   </bookViews>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="88">
   <si>
     <t>Datum/
 Woche</t>
@@ -125,9 +127,6 @@
     <t>Implementierung</t>
   </si>
   <si>
-    <t>25h</t>
-  </si>
-  <si>
     <t>REST-Modellierung</t>
   </si>
   <si>
@@ -144,15 +143,9 @@
 Kommunikations-modell</t>
   </si>
   <si>
-    <t>150h</t>
-  </si>
-  <si>
     <t>Projektstart</t>
   </si>
   <si>
-    <t>600h</t>
-  </si>
-  <si>
     <t>Idee festlegen</t>
   </si>
   <si>
@@ -174,32 +167,158 @@
     <t>9h</t>
   </si>
   <si>
-    <t>02.Nov-30.Nov</t>
-  </si>
-  <si>
     <t>1. Audit Foliensatz</t>
   </si>
   <si>
-    <t>Main Prototype</t>
-  </si>
-  <si>
-    <t>175h</t>
-  </si>
-  <si>
     <t>1. Meilenstein</t>
   </si>
   <si>
-    <t>geplant 87h</t>
+    <t>2. Meilstenstein (nicht bewertet)</t>
+  </si>
+  <si>
+    <t>3. Meilenstein</t>
+  </si>
+  <si>
+    <t>4. Meilenstein</t>
+  </si>
+  <si>
+    <t>300h</t>
+  </si>
+  <si>
+    <t>Architekturmodell</t>
+  </si>
+  <si>
+    <t>Iterration</t>
+  </si>
+  <si>
+    <t>Fehler untersuchen</t>
+  </si>
+  <si>
+    <t>Fehler korrigieren</t>
+  </si>
+  <si>
+    <t>1.5h</t>
+  </si>
+  <si>
+    <t>PoC's</t>
+  </si>
+  <si>
+    <t>Erweitern</t>
+  </si>
+  <si>
+    <t>6h</t>
+  </si>
+  <si>
+    <t>15h</t>
+  </si>
+  <si>
+    <t>Anforderungen ermitteln</t>
+  </si>
+  <si>
+    <t>Funktional Anf.</t>
+  </si>
+  <si>
+    <t>Organisationell Anf.</t>
+  </si>
+  <si>
+    <t>Qualitative Anf.</t>
+  </si>
+  <si>
+    <t>Technische Anf.</t>
+  </si>
+  <si>
+    <t>Vorgehensmodelle</t>
+  </si>
+  <si>
+    <t>Auswahl</t>
+  </si>
+  <si>
+    <t>Begründung</t>
+  </si>
+  <si>
+    <t>Anfang REST-Modellierung</t>
+  </si>
+  <si>
+    <t>Main Prototyp</t>
+  </si>
+  <si>
+    <t>Durchgeführte PoC's</t>
+  </si>
+  <si>
+    <t>Anwendungslogik</t>
+  </si>
+  <si>
+    <t>Modellierung</t>
+  </si>
+  <si>
+    <t>Pseudo-Code</t>
+  </si>
+  <si>
+    <t>5h</t>
+  </si>
+  <si>
+    <t>Prozessassessment</t>
+  </si>
+  <si>
+    <t>Reflexion</t>
+  </si>
+  <si>
+    <t>Fazit</t>
+  </si>
+  <si>
+    <t>Plakat</t>
+  </si>
+  <si>
+    <t>50h</t>
+  </si>
+  <si>
+    <t>2. Audit Foliensatz</t>
+  </si>
+  <si>
+    <t>3. Audit Foliensatz</t>
+  </si>
+  <si>
+    <t>4. Audit Foliensatz</t>
+  </si>
+  <si>
+    <t>Gesamte Zeit</t>
+  </si>
+  <si>
+    <t>70h</t>
+  </si>
+  <si>
+    <t>17h</t>
+  </si>
+  <si>
+    <t>94h</t>
+  </si>
+  <si>
+    <t>76h</t>
+  </si>
+  <si>
+    <t>68h</t>
+  </si>
+  <si>
+    <t>3.5h</t>
+  </si>
+  <si>
+    <t>62h</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -225,7 +344,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -248,42 +367,28 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -602,16 +707,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="C3:K40"/>
+  <dimension ref="C3:K85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" customWidth="1"/>
     <col min="6" max="6" width="20.85546875" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" customWidth="1"/>
@@ -620,25 +725,25 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -646,32 +751,30 @@
       <c r="C4" s="3">
         <v>44137</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="8"/>
+      <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C5" s="3">
         <v>44137</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.25">
@@ -694,8 +797,8 @@
         <v>44140</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="8" t="s">
-        <v>38</v>
+      <c r="E7" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -707,10 +810,10 @@
       </c>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="8"/>
+      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="1"/>
@@ -730,7 +833,7 @@
       <c r="F9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="8"/>
+      <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
         <v>10</v>
       </c>
@@ -739,34 +842,34 @@
       </c>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="9" t="s">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="11">
+      <c r="C11" s="8">
         <v>44151</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8" t="s">
+      <c r="G11" s="7"/>
+      <c r="H11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="8"/>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C12" s="3">
@@ -779,7 +882,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="I12" s="1"/>
     </row>
@@ -792,7 +895,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I13" s="1"/>
     </row>
@@ -801,11 +904,11 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I14" s="1"/>
     </row>
@@ -814,11 +917,11 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I15" s="1"/>
     </row>
@@ -827,11 +930,11 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I16" s="1"/>
     </row>
@@ -893,37 +996,37 @@
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C21" s="3">
-        <v>44159</v>
+        <v>44160</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="2" t="s">
-        <v>34</v>
+      <c r="E22" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -933,38 +1036,36 @@
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C24" s="3">
-        <v>44160</v>
-      </c>
+      <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="E24" s="2"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1" t="s">
-        <v>25</v>
+      <c r="E25" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="2" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -978,129 +1079,713 @@
         <v>44161</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C28" s="8">
+        <v>44162</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C29" s="8">
+        <v>44165</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I29" s="7"/>
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C30" s="8">
+        <v>44166</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C28" s="11">
-        <v>44162</v>
-      </c>
-      <c r="D28" s="8" t="s">
+      <c r="I30" s="7"/>
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="7"/>
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I32" s="7"/>
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I33" s="7"/>
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="7"/>
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I35" s="7"/>
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I36" s="7"/>
+      <c r="K36" s="4"/>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C37" s="7"/>
+      <c r="D37" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I37" s="7"/>
+      <c r="K37" s="4"/>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="K38" s="4"/>
+    </row>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I39" s="7"/>
+      <c r="K39" s="4"/>
+    </row>
+    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I40" s="7"/>
+      <c r="K40" s="4"/>
+    </row>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I41" s="7"/>
+      <c r="K41" s="4"/>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C42" s="7"/>
+      <c r="D42" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I42" s="7"/>
+      <c r="K42" s="4"/>
+    </row>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I43" s="7"/>
+      <c r="K43" s="4"/>
+    </row>
+    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I44" s="7"/>
+      <c r="K44" s="4"/>
+    </row>
+    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C45" s="7"/>
+      <c r="D45" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="K45" s="4"/>
+    </row>
+    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C46" s="3">
+        <v>44168</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="7"/>
+      <c r="K46" s="9"/>
+    </row>
+    <row r="47" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C47" s="8">
+        <v>44170</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C48" s="7"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="3:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="C49" s="7"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C50" s="7"/>
+      <c r="D50" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C51" s="8">
+        <v>44179</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I51" s="7"/>
+    </row>
+    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C52" s="8"/>
+      <c r="D52" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I52" s="7"/>
+    </row>
+    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C53" s="8"/>
+      <c r="D53" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I53" s="7"/>
+    </row>
+    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C54" s="8"/>
+      <c r="D54" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I54" s="7"/>
+    </row>
+    <row r="55" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C55" s="8"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I55" s="7"/>
+    </row>
+    <row r="56" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C56" s="8"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I56" s="7"/>
+    </row>
+    <row r="57" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C57" s="8"/>
+      <c r="D57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I57" s="7"/>
+    </row>
+    <row r="58" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C58" s="8"/>
+      <c r="D58" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I58" s="7"/>
+    </row>
+    <row r="59" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C59" s="8">
+        <v>43841</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I59" s="7"/>
+    </row>
+    <row r="60" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C60" s="8"/>
+      <c r="D60" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I60" s="7"/>
+    </row>
+    <row r="61" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C61" s="8"/>
+      <c r="D61" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I61" s="7"/>
+    </row>
+    <row r="62" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C62" s="8"/>
+      <c r="D62" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I62" s="7"/>
+    </row>
+    <row r="63" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C63" s="8"/>
+      <c r="D63" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I63" s="7"/>
+    </row>
+    <row r="64" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C64" s="8"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I64" s="7"/>
+    </row>
+    <row r="65" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C65" s="8"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I65" s="7"/>
+    </row>
+    <row r="66" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C66" s="8"/>
+      <c r="D66" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I66" s="7"/>
+    </row>
+    <row r="67" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C67" s="8">
+        <v>43869</v>
+      </c>
+      <c r="D67" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" s="8"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C29" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I29" s="9"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C30" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I30" s="1"/>
-      <c r="K30" s="5"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C31" s="8"/>
-      <c r="D31" s="11">
-        <v>44165</v>
-      </c>
-      <c r="E31" s="8" t="s">
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I67" s="7"/>
+    </row>
+    <row r="68" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C68" s="7"/>
+      <c r="D68" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I31" s="8"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C32" s="11">
-        <v>44165</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I32" s="8"/>
-    </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-    </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-    </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-    </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C40" s="5"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
+      <c r="I68" s="7"/>
+    </row>
+    <row r="69" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+    </row>
+    <row r="70" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+    </row>
+    <row r="71" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+    </row>
+    <row r="72" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+    </row>
+    <row r="73" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+    </row>
+    <row r="74" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+    </row>
+    <row r="75" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+    </row>
+    <row r="76" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+    </row>
+    <row r="77" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+    </row>
+    <row r="78" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+    </row>
+    <row r="79" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+    </row>
+    <row r="80" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+    </row>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+    </row>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+  </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>

--- a/Artefakte/Projektplan (vorläufig).xlsx
+++ b/Artefakte/Projektplan (vorläufig).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philipp\Documents\GitHub\EPSWS2021Wonnerth\Artefakte\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPWS2021WonnerthDemirel\Artefakte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80299CED-94A6-4F17-B5A0-742F9C874DED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F05B4F-33E3-461E-84A8-FFC508C780FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{844A3D81-6C6F-4253-9E99-8D7FBA7F69AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{844A3D81-6C6F-4253-9E99-8D7FBA7F69AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="104">
   <si>
     <t>Datum/
 Woche</t>
@@ -266,9 +266,6 @@
     <t>Fazit</t>
   </si>
   <si>
-    <t>Plakat</t>
-  </si>
-  <si>
     <t>50h</t>
   </si>
   <si>
@@ -303,6 +300,57 @@
   </si>
   <si>
     <t>62h</t>
+  </si>
+  <si>
+    <t>Nacharbeit Vorgehensmodell</t>
+  </si>
+  <si>
+    <t>Auswahl eines Vorgehensmodells</t>
+  </si>
+  <si>
+    <t>Architekturdiagramm</t>
+  </si>
+  <si>
+    <t>2H</t>
+  </si>
+  <si>
+    <t>Plastikfreies Einkaufen</t>
+  </si>
+  <si>
+    <t>1H</t>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Spendenvergleichsliste</t>
+  </si>
+  <si>
+    <t>Verkaufshistorie</t>
+  </si>
+  <si>
+    <t>Identifikation durch Gerät</t>
+  </si>
+  <si>
+    <t>Plakat?</t>
+  </si>
+  <si>
+    <t>20H</t>
+  </si>
+  <si>
+    <t>5H</t>
+  </si>
+  <si>
+    <t>15H</t>
+  </si>
+  <si>
+    <t>6H</t>
   </si>
 </sst>
 </file>
@@ -707,18 +755,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="C3:K85"/>
+  <dimension ref="C3:K97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="30.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" customWidth="1"/>
     <col min="9" max="9" width="19.140625" customWidth="1"/>
@@ -882,7 +930,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I12" s="1"/>
     </row>
@@ -1115,7 +1163,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I29" s="7"/>
       <c r="K29" s="9"/>
@@ -1243,7 +1291,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I38" s="7"/>
       <c r="K38" s="4"/>
@@ -1257,7 +1305,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I39" s="7"/>
       <c r="K39" s="4"/>
@@ -1271,7 +1319,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I40" s="7"/>
       <c r="K40" s="4"/>
@@ -1285,7 +1333,7 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I41" s="7"/>
       <c r="K41" s="4"/>
@@ -1406,7 +1454,7 @@
     <row r="50" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C50" s="7"/>
       <c r="D50" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="1"/>
@@ -1427,7 +1475,7 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I51" s="7"/>
     </row>
@@ -1505,14 +1553,14 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I57" s="7"/>
     </row>
     <row r="58" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C58" s="8"/>
       <c r="D58" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
@@ -1533,12 +1581,14 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I59" s="7"/>
     </row>
     <row r="60" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C60" s="8"/>
+      <c r="C60" s="8">
+        <v>44214</v>
+      </c>
       <c r="D60" s="7" t="s">
         <v>49</v>
       </c>
@@ -1552,40 +1602,40 @@
     </row>
     <row r="61" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C61" s="8"/>
-      <c r="D61" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c r="H61" s="7" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="I61" s="7"/>
     </row>
     <row r="62" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C62" s="8"/>
-      <c r="D62" s="7" t="s">
-        <v>66</v>
-      </c>
+      <c r="D62" s="7"/>
       <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
+      <c r="F62" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="G62" s="7"/>
       <c r="H62" s="7" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="I62" s="7"/>
     </row>
     <row r="63" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C63" s="8"/>
-      <c r="D63" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="7" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I63" s="7"/>
     </row>
@@ -1593,198 +1643,348 @@
       <c r="C64" s="8"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="I64" s="7"/>
     </row>
     <row r="65" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C65" s="8"/>
       <c r="D65" s="7"/>
-      <c r="E65" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7" t="s">
+        <v>91</v>
+      </c>
       <c r="G65" s="7"/>
       <c r="H65" s="7" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="I65" s="7"/>
     </row>
     <row r="66" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C66" s="8"/>
-      <c r="D66" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="7" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="I66" s="7"/>
     </row>
     <row r="67" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C67" s="8">
-        <v>43869</v>
-      </c>
+      <c r="C67" s="8"/>
       <c r="D67" s="7" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="7" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="I67" s="7"/>
     </row>
     <row r="68" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C68" s="7"/>
-      <c r="D68" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E68" s="7"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7" t="s">
+        <v>94</v>
+      </c>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I68" s="7"/>
+    </row>
+    <row r="69" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C69" s="8"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+    </row>
+    <row r="70" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C70" s="8"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I70" s="7"/>
+    </row>
+    <row r="71" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C71" s="8"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+    </row>
+    <row r="72" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C72" s="8"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+    </row>
+    <row r="73" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C73" s="8"/>
+      <c r="D73" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I73" s="7"/>
+    </row>
+    <row r="74" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C74" s="8"/>
+      <c r="D74" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I74" s="7"/>
+    </row>
+    <row r="75" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C75" s="8"/>
+      <c r="D75" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I75" s="7"/>
+    </row>
+    <row r="76" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C76" s="8"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I76" s="7"/>
+    </row>
+    <row r="77" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C77" s="8"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I77" s="7"/>
+    </row>
+    <row r="78" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C78" s="8"/>
+      <c r="D78" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I78" s="7"/>
+    </row>
+    <row r="79" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C79" s="8">
+        <v>43869</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I79" s="7"/>
+    </row>
+    <row r="80" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C80" s="7"/>
+      <c r="D80" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I68" s="7"/>
-    </row>
-    <row r="69" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-    </row>
-    <row r="70" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
-    </row>
-    <row r="71" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
-    </row>
-    <row r="72" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
-    </row>
-    <row r="73" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
-    </row>
-    <row r="74" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
-    </row>
-    <row r="75" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
-    </row>
-    <row r="76" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
-    </row>
-    <row r="77" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
-    </row>
-    <row r="78" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
-    </row>
-    <row r="79" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
-    </row>
-    <row r="80" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
-    </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
-    </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
-    </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-    </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
+      <c r="I80" s="7"/>
+    </row>
+    <row r="81" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+    </row>
+    <row r="82" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+    </row>
+    <row r="83" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+    </row>
+    <row r="84" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+    </row>
+    <row r="85" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+    </row>
+    <row r="86" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+    </row>
+    <row r="87" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+    </row>
+    <row r="88" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+    </row>
+    <row r="89" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+    </row>
+    <row r="90" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+    </row>
+    <row r="91" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+    </row>
+    <row r="92" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9"/>
+    </row>
+    <row r="94" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+    </row>
+    <row r="95" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+    </row>
+    <row r="96" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+    </row>
+    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
